--- a/data/Output/ご馳走屋名駅店/店舗情報まとめ.xlsx
+++ b/data/Output/ご馳走屋名駅店/店舗情報まとめ.xlsx
@@ -1869,7 +1869,7 @@
         <v>1773.890625</v>
       </c>
       <c r="H2" t="n">
-        <v>283822.5</v>
+        <v>886.9453125</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1921,7 +1921,7 @@
         <v>3242.872611464968</v>
       </c>
       <c r="H4" t="n">
-        <v>169710.3333333333</v>
+        <v>1080.957537154989</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1947,7 +1947,7 @@
         <v>2081.231884057971</v>
       </c>
       <c r="H5" t="n">
-        <v>143605</v>
+        <v>1040.615942028986</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1973,7 +1973,7 @@
         <v>4837.117117117117</v>
       </c>
       <c r="H6" t="n">
-        <v>89486.66666666667</v>
+        <v>806.1861861861862</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1999,7 +1999,7 @@
         <v>3235.990566037736</v>
       </c>
       <c r="H7" t="n">
-        <v>85753.75</v>
+        <v>808.9976415094339</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2025,7 +2025,7 @@
         <v>3481.233333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>62662.2</v>
+        <v>696.2466666666667</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2051,7 +2051,7 @@
         <v>5408.186046511628</v>
       </c>
       <c r="H9" t="n">
-        <v>58138</v>
+        <v>676.0232558139535</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2077,7 +2077,7 @@
         <v>2419.21052631579</v>
       </c>
       <c r="H10" t="n">
-        <v>91930</v>
+        <v>1209.605263157895</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2103,7 +2103,7 @@
         <v>6996.770833333333</v>
       </c>
       <c r="H11" t="n">
-        <v>47977.85714285714</v>
+        <v>999.5386904761905</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2129,7 +2129,7 @@
         <v>6898.375</v>
       </c>
       <c r="H12" t="n">
-        <v>27593.5</v>
+        <v>689.8375</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2155,7 +2155,7 @@
         <v>7657.823529411765</v>
       </c>
       <c r="H13" t="n">
-        <v>28929.55555555555</v>
+        <v>850.8692810457517</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2181,7 +2181,7 @@
         <v>2947.533333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>22106.5</v>
+        <v>736.8833333333333</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2207,7 +2207,7 @@
         <v>6275.130434782609</v>
       </c>
       <c r="H15" t="n">
-        <v>24054.66666666667</v>
+        <v>1045.855072463768</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2233,7 +2233,7 @@
         <v>4196.363636363636</v>
       </c>
       <c r="H16" t="n">
-        <v>7693.333333333333</v>
+        <v>349.6969696969697</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2259,7 +2259,7 @@
         <v>12789.63157894737</v>
       </c>
       <c r="H17" t="n">
-        <v>22091.18181818182</v>
+        <v>1162.693779904306</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2285,7 +2285,7 @@
         <v>1852.941176470588</v>
       </c>
       <c r="H18" t="n">
-        <v>10500</v>
+        <v>617.6470588235294</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2311,7 +2311,7 @@
         <v>1466.470588235294</v>
       </c>
       <c r="H19" t="n">
-        <v>1662</v>
+        <v>97.76470588235294</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2337,7 +2337,7 @@
         <v>9623.0625</v>
       </c>
       <c r="H20" t="n">
-        <v>19246.125</v>
+        <v>1202.8828125</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2363,7 +2363,7 @@
         <v>11870</v>
       </c>
       <c r="H21" t="n">
-        <v>12783.07692307692</v>
+        <v>913.0769230769231</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2389,7 +2389,7 @@
         <v>13637.64285714286</v>
       </c>
       <c r="H22" t="n">
-        <v>13637.64285714286</v>
+        <v>974.1173469387755</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2415,7 +2415,7 @@
         <v>11858.92857142857</v>
       </c>
       <c r="H23" t="n">
-        <v>6149.074074074074</v>
+        <v>439.2195767195767</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2441,7 +2441,7 @@
         <v>3607.923076923077</v>
       </c>
       <c r="H24" t="n">
-        <v>15634.33333333333</v>
+        <v>1202.641025641026</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2467,7 +2467,7 @@
         <v>10181.69230769231</v>
       </c>
       <c r="H25" t="n">
-        <v>7353.444444444444</v>
+        <v>565.6495726495727</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2493,7 +2493,7 @@
         <v>2748.461538461539</v>
       </c>
       <c r="H26" t="n">
-        <v>1880.526315789474</v>
+        <v>144.6558704453441</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2519,7 +2519,7 @@
         <v>5659.833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>16979.5</v>
+        <v>1414.958333333333</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2545,7 +2545,7 @@
         <v>33.83333333333334</v>
       </c>
       <c r="H28" t="n">
-        <v>13.09677419354839</v>
+        <v>1.091397849462366</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2571,7 +2571,7 @@
         <v>6775.636363636364</v>
       </c>
       <c r="H29" t="n">
-        <v>14906.4</v>
+        <v>1355.127272727273</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2597,7 +2597,7 @@
         <v>3345.3</v>
       </c>
       <c r="H30" t="n">
-        <v>11151</v>
+        <v>1115.1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2623,7 +2623,7 @@
         <v>3991.666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>7185</v>
+        <v>798.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2649,7 +2649,7 @@
         <v>33.66666666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>15.15</v>
+        <v>1.683333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2675,7 +2675,7 @@
         <v>8217.375</v>
       </c>
       <c r="H33" t="n">
-        <v>16434.75</v>
+        <v>2054.34375</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2701,7 +2701,7 @@
         <v>7476.428571428572</v>
       </c>
       <c r="H34" t="n">
-        <v>2012.884615384615</v>
+        <v>287.5549450549451</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2727,7 +2727,7 @@
         <v>16266.28571428571</v>
       </c>
       <c r="H35" t="n">
-        <v>6697.882352941177</v>
+        <v>956.8403361344538</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2753,7 +2753,7 @@
         <v>2909.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2493.857142857143</v>
+        <v>415.6428571428572</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2779,7 +2779,7 @@
         <v>6689.5</v>
       </c>
       <c r="H37" t="n">
-        <v>1672.375</v>
+        <v>278.7291666666667</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2805,7 +2805,7 @@
         <v>7500</v>
       </c>
       <c r="H38" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2831,7 +2831,7 @@
         <v>16810</v>
       </c>
       <c r="H39" t="n">
-        <v>2401.428571428572</v>
+        <v>600.3571428571429</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2857,7 +2857,7 @@
         <v>13586.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3396.625</v>
+        <v>849.15625</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2883,7 +2883,7 @@
         <v>26983.75</v>
       </c>
       <c r="H41" t="n">
-        <v>5139.761904761905</v>
+        <v>1284.940476190476</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2909,7 +2909,7 @@
         <v>15776.25</v>
       </c>
       <c r="H42" t="n">
-        <v>6310.5</v>
+        <v>1577.625</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2935,7 +2935,7 @@
         <v>31871.66666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>4157.173913043478</v>
+        <v>1385.724637681159</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2961,7 +2961,7 @@
         <v>11135.33333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>6681.2</v>
+        <v>2227.066666666667</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2987,7 +2987,7 @@
         <v>-8180</v>
       </c>
       <c r="H45" t="n">
-        <v>12270</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3013,7 +3013,7 @@
         <v>6103</v>
       </c>
       <c r="H46" t="n">
-        <v>2034.333333333333</v>
+        <v>678.1111111111111</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3039,7 +3039,7 @@
         <v>10325</v>
       </c>
       <c r="H47" t="n">
-        <v>4425</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3065,7 +3065,7 @@
         <v>11831.66666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>7099</v>
+        <v>2366.333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3091,7 +3091,7 @@
         <v>-41.66666666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>15.625</v>
+        <v>5.208333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3117,7 +3117,7 @@
         <v>12960</v>
       </c>
       <c r="H50" t="n">
-        <v>3240</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3143,7 +3143,7 @@
         <v>15.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.444444444444445</v>
+        <v>1.722222222222222</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3169,7 +3169,7 @@
         <v>17295</v>
       </c>
       <c r="H52" t="n">
-        <v>3459</v>
+        <v>1729.5</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3195,7 +3195,7 @@
         <v>14550</v>
       </c>
       <c r="H53" t="n">
-        <v>2645.454545454545</v>
+        <v>1322.727272727273</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3221,7 +3221,7 @@
         <v>41</v>
       </c>
       <c r="H54" t="n">
-        <v>2.484848484848485</v>
+        <v>1.242424242424242</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3247,7 +3247,7 @@
         <v>-22060</v>
       </c>
       <c r="H55" t="n">
-        <v>4010.909090909091</v>
+        <v>2005.454545454545</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3273,7 +3273,7 @@
         <v>45</v>
       </c>
       <c r="H56" t="n">
-        <v>8.181818181818182</v>
+        <v>4.090909090909091</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3299,7 +3299,7 @@
         <v>11.5</v>
       </c>
       <c r="H57" t="n">
-        <v>5.75</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3325,7 +3325,7 @@
         <v>-4175</v>
       </c>
       <c r="H58" t="n">
-        <v>2783.333333333333</v>
+        <v>1391.666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3351,7 +3351,7 @@
         <v>7135</v>
       </c>
       <c r="H59" t="n">
-        <v>1783.75</v>
+        <v>891.875</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3377,7 +3377,7 @@
         <v>55.5</v>
       </c>
       <c r="H60" t="n">
-        <v>3.827586206896552</v>
+        <v>1.913793103448276</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3403,7 +3403,7 @@
         <v>27.5</v>
       </c>
       <c r="H61" t="n">
-        <v>4.230769230769231</v>
+        <v>2.115384615384615</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3429,7 +3429,7 @@
         <v>30859.5</v>
       </c>
       <c r="H62" t="n">
-        <v>3428.833333333333</v>
+        <v>1714.416666666667</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3455,7 +3455,7 @@
         <v>40</v>
       </c>
       <c r="H63" t="n">
-        <v>6.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3481,7 +3481,7 @@
         <v>33.5</v>
       </c>
       <c r="H64" t="n">
-        <v>9.571428571428571</v>
+        <v>4.785714285714286</v>
       </c>
     </row>
     <row r="65" spans="1:8">
